--- a/salida/reporte 3 Nuevo Siglo.xlsx
+++ b/salida/reporte 3 Nuevo Siglo.xlsx
@@ -130,7 +130,7 @@
     <t>COMPAÑÍA</t>
   </si>
   <si>
-    <t>Abr 2019</t>
+    <t>Abr. 19</t>
   </si>
   <si>
     <t>201904</t>
